--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,15 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -58,61 +58,64 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>drop</t>
   </si>
   <si>
     <t>empty</t>
@@ -130,156 +133,165 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>health</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -647,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -758,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -766,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -916,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,16 +996,16 @@
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.68</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5909090909090909</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5897435897435898</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4871794871794872</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4838709677419355</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4516129032258064</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,7 +1475,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4054054054054054</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1484,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7264150943396226</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L18">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3611111111111111</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3529411764705883</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3430232558139535</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C21">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.71875</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1658,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3389830508474576</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L22">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,16 +1746,16 @@
         <v>99</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,16 +1796,16 @@
         <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1816,13 +1825,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.32</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3174603174603174</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1884,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.5900783289817232</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L26">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,38 +1925,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2745098039215687</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C27">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>137</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L27">
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>14</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>37</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L27">
-        <v>16</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2111111111111111</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1984,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.5600000000000001</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2008,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,10 +2028,10 @@
         <v>0.2</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2034,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.5588235294117647</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2058,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2066,13 +2075,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1706349206349206</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2084,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2108,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2116,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08847184986595175</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2134,19 +2143,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5280898876404494</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2158,21 +2167,45 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.0938337801608579</v>
+      </c>
+      <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>338</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.525</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2184,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.5186440677966102</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L33">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M33">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2210,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.4728033472803347</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L34">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M34">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2236,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.4651162790697674</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2262,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.4520547945205479</v>
+        <v>0.453125</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2288,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.4222222222222222</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2314,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.421875</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2340,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.4117647058823529</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2366,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.3846153846153846</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2392,47 +2425,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.3846153846153846</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.3809523809523809</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2444,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.3442622950819672</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2470,21 +2503,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.2978723404255319</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2496,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.2857142857142857</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2522,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.09569377990430622</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2548,21 +2581,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>378</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.08413461538461539</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2574,21 +2607,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.06487695749440715</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L48">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2600,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>836</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.04994450610432852</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L49">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2626,47 +2659,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>856</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.03987730061349693</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L50">
         <v>13</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>313</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.0265282583621684</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2678,137 +2711,189 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>844</v>
+        <v>833</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.02623456790123457</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>631</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.02618045815801777</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L53">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2083</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.01756198347107438</v>
+        <v>0.02465331278890601</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54">
         <v>17</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>951</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.01352657004830918</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="L55">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3063</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.005015673981191223</v>
+        <v>0.02241943017281644</v>
       </c>
       <c r="L56">
+        <v>48</v>
+      </c>
+      <c r="M56">
+        <v>50</v>
+      </c>
+      <c r="N56">
+        <v>0.96</v>
+      </c>
+      <c r="O56">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K57">
+        <v>0.01654601861427094</v>
+      </c>
+      <c r="L57">
         <v>16</v>
       </c>
-      <c r="M56">
-        <v>27</v>
-      </c>
-      <c r="N56">
-        <v>0.59</v>
-      </c>
-      <c r="O56">
-        <v>0.41</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>3174</v>
+      <c r="M57">
+        <v>17</v>
+      </c>
+      <c r="N57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58">
+        <v>0.01128304319793682</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>40</v>
+      </c>
+      <c r="N58">
+        <v>0.88</v>
+      </c>
+      <c r="O58">
+        <v>0.12</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3067</v>
       </c>
     </row>
   </sheetData>
